--- a/predictions/прогнозы_GP_Neural3.xlsx
+++ b/predictions/прогнозы_GP_Neural3.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19647983.35116153</v>
+        <v>19294297.11411567</v>
       </c>
       <c r="C2" t="n">
-        <v>19719585.14327178</v>
+        <v>19348513.62994544</v>
       </c>
       <c r="D2" t="n">
-        <v>19786962.26099285</v>
+        <v>19399228.18162993</v>
       </c>
       <c r="E2" t="n">
-        <v>19850401.9270683</v>
+        <v>19446702.10229456</v>
       </c>
       <c r="F2" t="n">
-        <v>19910170.42030307</v>
+        <v>19491175.54833038</v>
       </c>
       <c r="G2" t="n">
-        <v>19966514.56782404</v>
+        <v>19532869.22782452</v>
       </c>
       <c r="H2" t="n">
-        <v>20019663.15466096</v>
+        <v>19571986.00504296</v>
       </c>
       <c r="I2" t="n">
-        <v>20069828.24927051</v>
+        <v>19608712.3850176</v>
       </c>
       <c r="J2" t="n">
-        <v>20117206.44531849</v>
+        <v>19643219.88340259</v>
       </c>
       <c r="K2" t="n">
-        <v>20161980.02137519</v>
+        <v>19675666.28758842</v>
       </c>
       <c r="L2" t="n">
-        <v>20204318.02103797</v>
+        <v>19706196.81541502</v>
       </c>
       <c r="M2" t="n">
-        <v>20244377.25671636</v>
+        <v>19734945.17809308</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7895637.106768847</v>
+        <v>8231135.497296333</v>
       </c>
       <c r="C3" t="n">
-        <v>8029882.951831222</v>
+        <v>8363894.531227708</v>
       </c>
       <c r="D3" t="n">
-        <v>8157821.7656039</v>
+        <v>8490272.857104897</v>
       </c>
       <c r="E3" t="n">
-        <v>8279745.414360762</v>
+        <v>8610579.704488635</v>
       </c>
       <c r="F3" t="n">
-        <v>8395938.13083601</v>
+        <v>8725114.457751572</v>
       </c>
       <c r="G3" t="n">
-        <v>8506675.516572356</v>
+        <v>8834165.881317019</v>
       </c>
       <c r="H3" t="n">
-        <v>8612223.811773062</v>
+        <v>8938011.596937954</v>
       </c>
       <c r="I3" t="n">
-        <v>8712839.389827013</v>
+        <v>9036917.769861162</v>
       </c>
       <c r="J3" t="n">
-        <v>8808768.439214945</v>
+        <v>9131138.966660142</v>
       </c>
       <c r="K3" t="n">
-        <v>8900246.8003757</v>
+        <v>9220918.152631223</v>
       </c>
       <c r="L3" t="n">
-        <v>8987499.929598093</v>
+        <v>9306486.801453948</v>
       </c>
       <c r="M3" t="n">
-        <v>9070742.965822458</v>
+        <v>9388065.093809724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7720684.60247016</v>
+        <v>16281365.36845684</v>
       </c>
       <c r="C4" t="n">
-        <v>7854380.856972218</v>
+        <v>16593978.8197217</v>
       </c>
       <c r="D4" t="n">
-        <v>7982410.452263832</v>
+        <v>16893261.09409618</v>
       </c>
       <c r="E4" t="n">
-        <v>8104976.417414427</v>
+        <v>17179698.04203939</v>
       </c>
       <c r="F4" t="n">
-        <v>8222283.713909149</v>
+        <v>17453779.02149487</v>
       </c>
       <c r="G4" t="n">
-        <v>8334537.428788424</v>
+        <v>17715992.70108747</v>
       </c>
       <c r="H4" t="n">
-        <v>8441941.263676167</v>
+        <v>17966823.57218504</v>
       </c>
       <c r="I4" t="n">
-        <v>8544696.286109209</v>
+        <v>18206749.08517122</v>
       </c>
       <c r="J4" t="n">
-        <v>8642999.911821127</v>
+        <v>18436237.33190012</v>
       </c>
       <c r="K4" t="n">
-        <v>8737045.089030027</v>
+        <v>18655745.20315123</v>
       </c>
       <c r="L4" t="n">
-        <v>8827019.658144951</v>
+        <v>18865716.95658255</v>
       </c>
       <c r="M4" t="n">
-        <v>8913105.862966537</v>
+        <v>19066583.13732719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4960672.061339378</v>
+        <v>21705871.07458901</v>
       </c>
       <c r="C5" t="n">
-        <v>5066968.236386776</v>
+        <v>21882436.7269392</v>
       </c>
       <c r="D5" t="n">
-        <v>5168766.081329584</v>
+        <v>22050192.38046861</v>
       </c>
       <c r="E5" t="n">
-        <v>5266226.448782206</v>
+        <v>22209596.52104461</v>
       </c>
       <c r="F5" t="n">
-        <v>5359511.779542923</v>
+        <v>22361088.3529681</v>
       </c>
       <c r="G5" t="n">
-        <v>5448784.651675224</v>
+        <v>22505087.56929457</v>
       </c>
       <c r="H5" t="n">
-        <v>5534206.570300579</v>
+        <v>22641994.35555112</v>
       </c>
       <c r="I5" t="n">
-        <v>5615936.969668865</v>
+        <v>22772189.58160877</v>
       </c>
       <c r="J5" t="n">
-        <v>5694132.401208878</v>
+        <v>22896035.143098</v>
       </c>
       <c r="K5" t="n">
-        <v>5768945.883654356</v>
+        <v>23013874.41966975</v>
       </c>
       <c r="L5" t="n">
-        <v>5840526.393526077</v>
+        <v>23126032.82229018</v>
       </c>
       <c r="M5" t="n">
-        <v>5909018.476471186</v>
+        <v>23232818.40645719</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9713720.580026329</v>
+        <v>2605085.201219767</v>
       </c>
       <c r="C6" t="n">
-        <v>9796174.682476163</v>
+        <v>2556027.624027193</v>
       </c>
       <c r="D6" t="n">
-        <v>9874563.51998806</v>
+        <v>2509080.64698568</v>
       </c>
       <c r="E6" t="n">
-        <v>9949098.892603219</v>
+        <v>2464169.470750332</v>
       </c>
       <c r="F6" t="n">
-        <v>10019983.28853726</v>
+        <v>2421217.429619759</v>
       </c>
       <c r="G6" t="n">
-        <v>10087409.88917577</v>
+        <v>2380147.028372467</v>
       </c>
       <c r="H6" t="n">
-        <v>10151562.66057855</v>
+        <v>2340880.784573436</v>
       </c>
       <c r="I6" t="n">
-        <v>10212616.5139637</v>
+        <v>2303341.905631244</v>
       </c>
       <c r="J6" t="n">
-        <v>10270737.52024573</v>
+        <v>2267454.826146781</v>
       </c>
       <c r="K6" t="n">
-        <v>10326083.16608208</v>
+        <v>2233145.627599835</v>
       </c>
       <c r="L6" t="n">
-        <v>10378802.64072174</v>
+        <v>2200342.35941878</v>
       </c>
       <c r="M6" t="n">
-        <v>10429037.1448577</v>
+        <v>2168975.277799487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2671892.794220507</v>
+        <v>7232785.746532381</v>
       </c>
       <c r="C7" t="n">
-        <v>2688060.339016579</v>
+        <v>7323016.805137932</v>
       </c>
       <c r="D7" t="n">
-        <v>2703429.251638822</v>
+        <v>7409075.773718297</v>
       </c>
       <c r="E7" t="n">
-        <v>2718039.818205737</v>
+        <v>7491148.47479099</v>
       </c>
       <c r="F7" t="n">
-        <v>2731930.880357832</v>
+        <v>7569416.803487718</v>
       </c>
       <c r="G7" t="n">
-        <v>2745139.755864076</v>
+        <v>7644057.947102129</v>
       </c>
       <c r="H7" t="n">
-        <v>2757702.190817587</v>
+        <v>7715243.78861475</v>
       </c>
       <c r="I7" t="n">
-        <v>2769652.337580144</v>
+        <v>7783140.467012882</v>
       </c>
       <c r="J7" t="n">
-        <v>2781022.753502309</v>
+        <v>7847908.070187926</v>
       </c>
       <c r="K7" t="n">
-        <v>2791844.416205794</v>
+        <v>7909700.439060092</v>
       </c>
       <c r="L7" t="n">
-        <v>2802146.75186085</v>
+        <v>7968665.064311564</v>
       </c>
       <c r="M7" t="n">
-        <v>2811957.673494309</v>
+        <v>8024943.059394538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1444143.364184678</v>
+        <v>17803173.74812779</v>
       </c>
       <c r="C8" t="n">
-        <v>1452268.479819402</v>
+        <v>17828508.44302267</v>
       </c>
       <c r="D8" t="n">
-        <v>1459982.357299656</v>
+        <v>17852695.07532459</v>
       </c>
       <c r="E8" t="n">
-        <v>1467307.855781555</v>
+        <v>17875768.10152173</v>
       </c>
       <c r="F8" t="n">
-        <v>1474266.592319161</v>
+        <v>17897764.16303667</v>
       </c>
       <c r="G8" t="n">
-        <v>1480878.993681513</v>
+        <v>17918721.40920153</v>
       </c>
       <c r="H8" t="n">
-        <v>1487164.348765373</v>
+        <v>17938678.92360201</v>
       </c>
       <c r="I8" t="n">
-        <v>1493140.86105404</v>
+        <v>17957676.24233413</v>
       </c>
       <c r="J8" t="n">
-        <v>1498825.700659521</v>
+        <v>17975752.95332867</v>
       </c>
       <c r="K8" t="n">
-        <v>1504235.05558078</v>
+        <v>17992948.36670369</v>
       </c>
       <c r="L8" t="n">
-        <v>1509384.181883574</v>
+        <v>18009301.24691126</v>
       </c>
       <c r="M8" t="n">
-        <v>1514287.452565931</v>
+        <v>18024849.59827739</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2739272.406131923</v>
+        <v>25877781.35111046</v>
       </c>
       <c r="C9" t="n">
-        <v>2792790.443319082</v>
+        <v>26025141.53812826</v>
       </c>
       <c r="D9" t="n">
-        <v>2843941.048681676</v>
+        <v>26164960.94355488</v>
       </c>
       <c r="E9" t="n">
-        <v>2892819.55958128</v>
+        <v>26297657.58326411</v>
       </c>
       <c r="F9" t="n">
-        <v>2939520.594033003</v>
+        <v>26423627.74788058</v>
       </c>
       <c r="G9" t="n">
-        <v>2984137.443547904</v>
+        <v>26543246.67748368</v>
       </c>
       <c r="H9" t="n">
-        <v>3026761.583658457</v>
+        <v>26656869.29925108</v>
       </c>
       <c r="I9" t="n">
-        <v>3067482.286283195</v>
+        <v>26764831.01010323</v>
       </c>
       <c r="J9" t="n">
-        <v>3106386.319699287</v>
+        <v>26867448.48904216</v>
       </c>
       <c r="K9" t="n">
-        <v>3143557.723439932</v>
+        <v>26965020.5262109</v>
       </c>
       <c r="L9" t="n">
-        <v>3179077.646809399</v>
+        <v>27057828.85786843</v>
       </c>
       <c r="M9" t="n">
-        <v>3213024.24110043</v>
+        <v>27146138.9983356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5889478.714100361</v>
+        <v>11470010.16537499</v>
       </c>
       <c r="C10" t="n">
-        <v>5942940.579750776</v>
+        <v>11661799.24676681</v>
       </c>
       <c r="D10" t="n">
-        <v>5993959.66925174</v>
+        <v>11844621.66803348</v>
       </c>
       <c r="E10" t="n">
-        <v>6042644.490020156</v>
+        <v>12018887.43691802</v>
       </c>
       <c r="F10" t="n">
-        <v>6089100.896815777</v>
+        <v>12184996.4499855</v>
       </c>
       <c r="G10" t="n">
-        <v>6133431.749002337</v>
+        <v>12343337.01163995</v>
       </c>
       <c r="H10" t="n">
-        <v>6175736.652369976</v>
+        <v>12494284.73062694</v>
       </c>
       <c r="I10" t="n">
-        <v>6216111.773145676</v>
+        <v>12638201.73609698</v>
       </c>
       <c r="J10" t="n">
-        <v>6254649.713185847</v>
+        <v>12775436.16214561</v>
       </c>
       <c r="K10" t="n">
-        <v>6291439.436654091</v>
+        <v>12906321.85607517</v>
       </c>
       <c r="L10" t="n">
-        <v>6326566.239774406</v>
+        <v>13031178.2714684</v>
       </c>
       <c r="M10" t="n">
-        <v>6360111.756228864</v>
+        <v>13150310.51227283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2414532.403989494</v>
+        <v>12993844.21098685</v>
       </c>
       <c r="C11" t="n">
-        <v>2396687.535129577</v>
+        <v>13178148.81086373</v>
       </c>
       <c r="D11" t="n">
-        <v>2379235.638388544</v>
+        <v>13353319.51424408</v>
       </c>
       <c r="E11" t="n">
-        <v>2362210.598149806</v>
+        <v>13519831.1172483</v>
       </c>
       <c r="F11" t="n">
-        <v>2345637.502850562</v>
+        <v>13678138.61588752</v>
       </c>
       <c r="G11" t="n">
-        <v>2329534.015742183</v>
+        <v>13828676.88489628</v>
       </c>
       <c r="H11" t="n">
-        <v>2313911.563542843</v>
+        <v>13971860.62406039</v>
       </c>
       <c r="I11" t="n">
-        <v>2298776.364017814</v>
+        <v>14108084.51876616</v>
       </c>
       <c r="J11" t="n">
-        <v>2284130.31162259</v>
+        <v>14237723.56980622</v>
       </c>
       <c r="K11" t="n">
-        <v>2269971.738621712</v>
+        <v>14361133.55455554</v>
       </c>
       <c r="L11" t="n">
-        <v>2256296.06725961</v>
+        <v>14478651.58788526</v>
       </c>
       <c r="M11" t="n">
-        <v>2243096.366936117</v>
+        <v>14590596.75637269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>441171.9823870528</v>
+        <v>39239943.26968122</v>
       </c>
       <c r="C12" t="n">
-        <v>414238.5247030873</v>
+        <v>39377472.81288135</v>
       </c>
       <c r="D12" t="n">
-        <v>388767.5447519496</v>
+        <v>39508278.98702478</v>
       </c>
       <c r="E12" t="n">
-        <v>364669.1183033958</v>
+        <v>39632667.6331774</v>
       </c>
       <c r="F12" t="n">
-        <v>341858.7866098415</v>
+        <v>39750939.23289299</v>
       </c>
       <c r="G12" t="n">
-        <v>320257.3232761938</v>
+        <v>39863387.19950509</v>
       </c>
       <c r="H12" t="n">
-        <v>299790.4864728544</v>
+        <v>39970296.57302535</v>
       </c>
       <c r="I12" t="n">
-        <v>280388.76345619</v>
+        <v>40071943.05407894</v>
       </c>
       <c r="J12" t="n">
-        <v>261987.1128237378</v>
+        <v>40168592.32085145</v>
       </c>
       <c r="K12" t="n">
-        <v>244524.7086655479</v>
+        <v>40260499.58044493</v>
       </c>
       <c r="L12" t="n">
-        <v>227944.6897529215</v>
+        <v>40347909.31285238</v>
       </c>
       <c r="M12" t="n">
-        <v>212193.9160677344</v>
+        <v>40431055.17189264</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1397380.022853434</v>
+        <v>37150455.52349122</v>
       </c>
       <c r="C13" t="n">
-        <v>1421448.383497953</v>
+        <v>37176018.57621048</v>
       </c>
       <c r="D13" t="n">
-        <v>1444405.332133681</v>
+        <v>37200347.90730417</v>
       </c>
       <c r="E13" t="n">
-        <v>1466300.701233298</v>
+        <v>37223470.65027769</v>
       </c>
       <c r="F13" t="n">
-        <v>1487183.179143965</v>
+        <v>37245419.41699183</v>
       </c>
       <c r="G13" t="n">
-        <v>1507100.120689899</v>
+        <v>37266230.90876505</v>
       </c>
       <c r="H13" t="n">
-        <v>1526097.40419504</v>
+        <v>37285944.75761719</v>
       </c>
       <c r="I13" t="n">
-        <v>1544219.327867329</v>
+        <v>37304602.56629862</v>
       </c>
       <c r="J13" t="n">
-        <v>1561508.539327174</v>
+        <v>37322247.1189121</v>
       </c>
       <c r="K13" t="n">
-        <v>1578005.992852837</v>
+        <v>37338921.73722696</v>
       </c>
       <c r="L13" t="n">
-        <v>1593750.929601878</v>
+        <v>37354669.76085684</v>
       </c>
       <c r="M13" t="n">
-        <v>1608780.876713663</v>
+        <v>37369534.132047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>223224.7094435636</v>
+        <v>630919.5861650109</v>
       </c>
       <c r="C14" t="n">
-        <v>199417.0458606668</v>
+        <v>642374.0101998821</v>
       </c>
       <c r="D14" t="n">
-        <v>176861.301729057</v>
+        <v>653299.0542667359</v>
       </c>
       <c r="E14" t="n">
-        <v>155485.7918016594</v>
+        <v>663718.1131810769</v>
       </c>
       <c r="F14" t="n">
-        <v>135222.4476597253</v>
+        <v>673654.1387616321</v>
       </c>
       <c r="G14" t="n">
-        <v>116006.7928933464</v>
+        <v>683129.5292618722</v>
       </c>
       <c r="H14" t="n">
-        <v>97777.8782339897</v>
+        <v>692166.0441868454</v>
       </c>
       <c r="I14" t="n">
-        <v>80478.1869192943</v>
+        <v>700784.7407183573</v>
       </c>
       <c r="J14" t="n">
-        <v>64053.51855875365</v>
+        <v>709005.9283962324</v>
       </c>
       <c r="K14" t="n">
-        <v>48452.85812254623</v>
+        <v>716849.1391213909</v>
       </c>
       <c r="L14" t="n">
-        <v>33628.23530289344</v>
+        <v>724333.1099025458</v>
       </c>
       <c r="M14" t="n">
-        <v>19534.57840306498</v>
+        <v>731475.7761200592</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>641385.5038815551</v>
+        <v>3882155.941835582</v>
       </c>
       <c r="C15" t="n">
-        <v>651351.0564187542</v>
+        <v>3911451.730046839</v>
       </c>
       <c r="D15" t="n">
-        <v>660835.4188399762</v>
+        <v>3939261.824454963</v>
       </c>
       <c r="E15" t="n">
-        <v>669862.3059282489</v>
+        <v>3965667.7208682</v>
       </c>
       <c r="F15" t="n">
-        <v>678454.6069619879</v>
+        <v>3990746.809882671</v>
       </c>
       <c r="G15" t="n">
-        <v>686634.3405362293</v>
+        <v>4014572.477069229</v>
       </c>
       <c r="H15" t="n">
-        <v>694422.6266098097</v>
+        <v>4037214.221532881</v>
       </c>
       <c r="I15" t="n">
-        <v>701839.6727113239</v>
+        <v>4058737.78828302</v>
       </c>
       <c r="J15" t="n">
-        <v>708904.7716682144</v>
+        <v>4079205.310529828</v>
       </c>
       <c r="K15" t="n">
-        <v>715636.308619</v>
+        <v>4098675.458617747</v>
       </c>
       <c r="L15" t="n">
-        <v>722051.7753932923</v>
+        <v>4117203.592854768</v>
       </c>
       <c r="M15" t="n">
-        <v>728167.7906528339</v>
+        <v>4134841.917967856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>861103.8836137205</v>
+        <v>9957477.128521696</v>
       </c>
       <c r="C16" t="n">
-        <v>876025.2933753282</v>
+        <v>10027256.37141968</v>
       </c>
       <c r="D16" t="n">
-        <v>890252.0955683589</v>
+        <v>10093227.8084162</v>
       </c>
       <c r="E16" t="n">
-        <v>903815.7937347591</v>
+        <v>10155623.88448997</v>
       </c>
       <c r="F16" t="n">
-        <v>916747.1487306207</v>
+        <v>10214662.98766392</v>
       </c>
       <c r="G16" t="n">
-        <v>929076.0581766516</v>
+        <v>10270550.08330542</v>
       </c>
       <c r="H16" t="n">
-        <v>940831.4661215097</v>
+        <v>10323477.36948631</v>
       </c>
       <c r="I16" t="n">
-        <v>952041.2982393056</v>
+        <v>10373624.94053478</v>
       </c>
       <c r="J16" t="n">
-        <v>962732.4184511006</v>
+        <v>10421161.44864613</v>
       </c>
       <c r="K16" t="n">
-        <v>972930.6033883542</v>
+        <v>10466244.75562189</v>
       </c>
       <c r="L16" t="n">
-        <v>982660.5315825045</v>
+        <v>10509022.56871688</v>
       </c>
       <c r="M16" t="n">
-        <v>991945.7846989185</v>
+        <v>10549633.05608291</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3494998.31131357</v>
+        <v>4853264.587437838</v>
       </c>
       <c r="C17" t="n">
-        <v>3550744.95182842</v>
+        <v>4884326.520246774</v>
       </c>
       <c r="D17" t="n">
-        <v>3603798.223621324</v>
+        <v>4913661.066172987</v>
       </c>
       <c r="E17" t="n">
-        <v>3654289.910165623</v>
+        <v>4941379.748643026</v>
       </c>
       <c r="F17" t="n">
-        <v>3702347.462913767</v>
+        <v>4967586.28891705</v>
       </c>
       <c r="G17" t="n">
-        <v>3748093.69078809</v>
+        <v>4992377.161904246</v>
       </c>
       <c r="H17" t="n">
-        <v>3791646.555288315</v>
+        <v>5015842.114789382</v>
       </c>
       <c r="I17" t="n">
-        <v>3833119.052905932</v>
+        <v>5038064.650410935</v>
       </c>
       <c r="J17" t="n">
-        <v>3872619.169047117</v>
+        <v>5059122.477327898</v>
       </c>
       <c r="K17" t="n">
-        <v>3910249.889892519</v>
+        <v>5079087.928488582</v>
       </c>
       <c r="L17" t="n">
-        <v>3946109.260632947</v>
+        <v>5098028.350371897</v>
       </c>
       <c r="M17" t="n">
-        <v>3980290.480263874</v>
+        <v>5116006.464409679</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>880313.1322807223</v>
+        <v>3174646.823507287</v>
       </c>
       <c r="C18" t="n">
-        <v>872323.647401005</v>
+        <v>3171925.654309452</v>
       </c>
       <c r="D18" t="n">
-        <v>864676.7175559849</v>
+        <v>3169350.316263631</v>
       </c>
       <c r="E18" t="n">
-        <v>857359.466889143</v>
+        <v>3166912.127241261</v>
       </c>
       <c r="F18" t="n">
-        <v>850358.9439901039</v>
+        <v>3164602.7273008</v>
       </c>
       <c r="G18" t="n">
-        <v>843662.2414798439</v>
+        <v>3162414.127747193</v>
       </c>
       <c r="H18" t="n">
-        <v>837256.592836909</v>
+        <v>3160338.74074313</v>
       </c>
       <c r="I18" t="n">
-        <v>831129.4498295039</v>
+        <v>3158369.394112632</v>
       </c>
       <c r="J18" t="n">
-        <v>825268.5434917286</v>
+        <v>3156499.335034452</v>
       </c>
       <c r="K18" t="n">
-        <v>819661.9311812744</v>
+        <v>3154722.225545913</v>
       </c>
       <c r="L18" t="n">
-        <v>814298.0319152921</v>
+        <v>3153032.132124841</v>
       </c>
       <c r="M18" t="n">
-        <v>809165.6518745571</v>
+        <v>3151423.511140227</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20333.26790360466</v>
+        <v>5424936.717459679</v>
       </c>
       <c r="C19" t="n">
-        <v>17868.83508406463</v>
+        <v>5430616.78936246</v>
       </c>
       <c r="D19" t="n">
-        <v>15538.67801445839</v>
+        <v>5436019.993223727</v>
       </c>
       <c r="E19" t="n">
-        <v>13334.34279915597</v>
+        <v>5441157.149312213</v>
       </c>
       <c r="F19" t="n">
-        <v>11247.92580397066</v>
+        <v>5446039.071785346</v>
       </c>
       <c r="G19" t="n">
-        <v>9272.042835594388</v>
+        <v>5450676.497122034</v>
       </c>
       <c r="H19" t="n">
-        <v>7399.798689971096</v>
+        <v>5455080.0231269</v>
       </c>
       <c r="I19" t="n">
-        <v>5624.75740441808</v>
+        <v>5459260.057791561</v>
       </c>
       <c r="J19" t="n">
-        <v>3940.913460239186</v>
+        <v>5463226.777205974</v>
       </c>
       <c r="K19" t="n">
-        <v>2342.664110395359</v>
+        <v>5466990.091643915</v>
       </c>
       <c r="L19" t="n">
-        <v>824.7829499540385</v>
+        <v>5470559.618964165</v>
       </c>
       <c r="M19" t="n">
-        <v>-617.605199627229</v>
+        <v>5473944.66448164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2168750.714931332</v>
+        <v>2426486.356318638</v>
       </c>
       <c r="C20" t="n">
-        <v>2171358.050402872</v>
+        <v>2400410.27439703</v>
       </c>
       <c r="D20" t="n">
-        <v>2173918.141624726</v>
+        <v>2375498.226327688</v>
       </c>
       <c r="E20" t="n">
-        <v>2176422.977208436</v>
+        <v>2351702.561251</v>
       </c>
       <c r="F20" t="n">
-        <v>2178866.333394006</v>
+        <v>2328975.780593976</v>
       </c>
       <c r="G20" t="n">
-        <v>2181243.50638596</v>
+        <v>2307270.942321524</v>
       </c>
       <c r="H20" t="n">
-        <v>2183551.078886226</v>
+        <v>2286541.977748677</v>
       </c>
       <c r="I20" t="n">
-        <v>2185786.717175789</v>
+        <v>2266743.93546845</v>
       </c>
       <c r="J20" t="n">
-        <v>2187948.995324761</v>
+        <v>2247833.164772794</v>
       </c>
       <c r="K20" t="n">
-        <v>2190037.243385009</v>
+        <v>2229767.449061066</v>
       </c>
       <c r="L20" t="n">
-        <v>2192051.416694798</v>
+        <v>2212506.098116174</v>
       </c>
       <c r="M20" t="n">
-        <v>2193991.983695351</v>
+        <v>2196010.006746769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1204361.175026666</v>
+        <v>3232491.895025954</v>
       </c>
       <c r="C21" t="n">
-        <v>1212034.943708409</v>
+        <v>3243684.792610168</v>
       </c>
       <c r="D21" t="n">
-        <v>1219363.140425775</v>
+        <v>3254393.152356192</v>
       </c>
       <c r="E21" t="n">
-        <v>1226358.817053255</v>
+        <v>3264631.835565217</v>
       </c>
       <c r="F21" t="n">
-        <v>1233035.20272911</v>
+        <v>3274416.560562819</v>
       </c>
       <c r="G21" t="n">
-        <v>1239405.554155931</v>
+        <v>3283763.614830844</v>
       </c>
       <c r="H21" t="n">
-        <v>1245483.034332551</v>
+        <v>3292689.61423818</v>
       </c>
       <c r="I21" t="n">
-        <v>1251280.615543634</v>
+        <v>3301211.303454645</v>
       </c>
       <c r="J21" t="n">
-        <v>1256811.002936326</v>
+        <v>3309345.392131954</v>
       </c>
       <c r="K21" t="n">
-        <v>1262086.575483184</v>
+        <v>3317108.421957158</v>
       </c>
       <c r="L21" t="n">
-        <v>1267119.341545857</v>
+        <v>3324516.660199836</v>
       </c>
       <c r="M21" t="n">
-        <v>1271920.906633973</v>
+        <v>3331586.015854917</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569206.9057308361</v>
+        <v>11142187.56529561</v>
       </c>
       <c r="C22" t="n">
-        <v>555061.1197979078</v>
+        <v>11185424.77090123</v>
       </c>
       <c r="D22" t="n">
-        <v>541515.5605798811</v>
+        <v>11226355.70628229</v>
       </c>
       <c r="E22" t="n">
-        <v>528552.5645839348</v>
+        <v>11265110.6470001</v>
       </c>
       <c r="F22" t="n">
-        <v>516153.0128281862</v>
+        <v>11301813.18737267</v>
       </c>
       <c r="G22" t="n">
-        <v>504296.8099492937</v>
+        <v>11336580.39747295</v>
       </c>
       <c r="H22" t="n">
-        <v>492963.2746121511</v>
+        <v>11369523.0134818</v>
       </c>
       <c r="I22" t="n">
-        <v>482131.4552310109</v>
+        <v>11400745.65312994</v>
       </c>
       <c r="J22" t="n">
-        <v>471780.3830107898</v>
+        <v>11430347.04919636</v>
       </c>
       <c r="K22" t="n">
-        <v>461889.2726027444</v>
+        <v>11458420.29520878</v>
       </c>
       <c r="L22" t="n">
-        <v>452437.6791332513</v>
+        <v>11485053.09837565</v>
       </c>
       <c r="M22" t="n">
-        <v>443405.6190528646</v>
+        <v>11510328.03573656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26079.93221566686</v>
+        <v>7015624.078871995</v>
       </c>
       <c r="C23" t="n">
-        <v>24645.09711657558</v>
+        <v>7016305.323584199</v>
       </c>
       <c r="D23" t="n">
-        <v>23274.71475648368</v>
+        <v>7016898.249687016</v>
       </c>
       <c r="E23" t="n">
-        <v>21966.38153088652</v>
+        <v>7017407.289843351</v>
       </c>
       <c r="F23" t="n">
-        <v>20717.6337989117</v>
+        <v>7017837.033203572</v>
       </c>
       <c r="G23" t="n">
-        <v>19525.98463075329</v>
+        <v>7018192.13137731</v>
       </c>
       <c r="H23" t="n">
-        <v>18388.95308433566</v>
+        <v>7018477.224145994</v>
       </c>
       <c r="I23" t="n">
-        <v>17304.08725250047</v>
+        <v>7018696.881646976</v>
       </c>
       <c r="J23" t="n">
-        <v>16268.98213727539</v>
+        <v>7018855.560232103</v>
       </c>
       <c r="K23" t="n">
-        <v>15281.2932487349</v>
+        <v>7018957.569605589</v>
       </c>
       <c r="L23" t="n">
-        <v>14338.74668521201</v>
+        <v>7019007.049220756</v>
       </c>
       <c r="M23" t="n">
-        <v>13439.14633523021</v>
+        <v>7019007.952216923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10323762.82762897</v>
+        <v>9245647.669191688</v>
       </c>
       <c r="C24" t="n">
-        <v>10378756.23924947</v>
+        <v>9289371.218406975</v>
       </c>
       <c r="D24" t="n">
-        <v>10431232.18947566</v>
+        <v>9330829.519696593</v>
       </c>
       <c r="E24" t="n">
-        <v>10481293.31195664</v>
+        <v>9370146.859187543</v>
       </c>
       <c r="F24" t="n">
-        <v>10529041.80078685</v>
+        <v>9407441.417087138</v>
       </c>
       <c r="G24" t="n">
-        <v>10574578.63478643</v>
+        <v>9442825.387555599</v>
       </c>
       <c r="H24" t="n">
-        <v>10618002.9573403</v>
+        <v>9476405.130614281</v>
       </c>
       <c r="I24" t="n">
-        <v>10659411.5889746</v>
+        <v>9508281.349060178</v>
       </c>
       <c r="J24" t="n">
-        <v>10698898.6526373</v>
+        <v>9538549.284248888</v>
       </c>
       <c r="K24" t="n">
-        <v>10736555.29415935</v>
+        <v>9567298.925421119</v>
       </c>
       <c r="L24" t="n">
-        <v>10772469.4826265</v>
+        <v>9594615.228078544</v>
       </c>
       <c r="M24" t="n">
-        <v>10806725.87743956</v>
+        <v>9620578.33755964</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2735181.103029663</v>
+        <v>4872935.093413569</v>
       </c>
       <c r="C25" t="n">
-        <v>2727599.331266269</v>
+        <v>4868453.664578564</v>
       </c>
       <c r="D25" t="n">
-        <v>2720443.899534309</v>
+        <v>4864210.169378348</v>
       </c>
       <c r="E25" t="n">
-        <v>2713687.522050653</v>
+        <v>4860186.744671069</v>
       </c>
       <c r="F25" t="n">
-        <v>2707304.562067848</v>
+        <v>4856367.140359558</v>
       </c>
       <c r="G25" t="n">
-        <v>2701270.987800777</v>
+        <v>4852736.565713912</v>
       </c>
       <c r="H25" t="n">
-        <v>2695564.313996417</v>
+        <v>4849281.548499741</v>
       </c>
       <c r="I25" t="n">
-        <v>2690163.533917895</v>
+        <v>4845989.806590453</v>
       </c>
       <c r="J25" t="n">
-        <v>2685049.045427451</v>
+        <v>4842850.131485917</v>
       </c>
       <c r="K25" t="n">
-        <v>2680202.573991697</v>
+        <v>4839852.283012502</v>
       </c>
       <c r="L25" t="n">
-        <v>2675607.094713768</v>
+        <v>4836986.894406974</v>
       </c>
       <c r="M25" t="n">
-        <v>2671246.75499014</v>
+        <v>4834245.386939026</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10477161.0637846</v>
+        <v>10683158.65676764</v>
       </c>
       <c r="C26" t="n">
-        <v>10545815.34555149</v>
+        <v>10717659.65909141</v>
       </c>
       <c r="D26" t="n">
-        <v>10611112.68512422</v>
+        <v>10750518.45657939</v>
       </c>
       <c r="E26" t="n">
-        <v>10673223.66375089</v>
+        <v>10781807.15958712</v>
       </c>
       <c r="F26" t="n">
-        <v>10732311.85036701</v>
+        <v>10811596.77126646</v>
       </c>
       <c r="G26" t="n">
-        <v>10788533.74817887</v>
+        <v>10839956.79903182</v>
       </c>
       <c r="H26" t="n">
-        <v>10842038.80909863</v>
+        <v>10866954.94792378</v>
       </c>
       <c r="I26" t="n">
-        <v>10892969.50481197</v>
+        <v>10892656.88510245</v>
       </c>
       <c r="J26" t="n">
-        <v>10941461.4443447</v>
+        <v>10917126.0654633</v>
       </c>
       <c r="K26" t="n">
-        <v>10987643.52919286</v>
+        <v>10940423.60936928</v>
       </c>
       <c r="L26" t="n">
-        <v>11031638.13805109</v>
+        <v>10962608.22426626</v>
       </c>
       <c r="M26" t="n">
-        <v>11073561.33427474</v>
+        <v>10983736.16300091</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15325328.53344148</v>
+        <v>4529233.160882242</v>
       </c>
       <c r="C27" t="n">
-        <v>15415173.81001365</v>
+        <v>4551472.075328976</v>
       </c>
       <c r="D27" t="n">
-        <v>15500458.70205867</v>
+        <v>4572418.323762901</v>
       </c>
       <c r="E27" t="n">
-        <v>15581436.81047654</v>
+        <v>4592154.4169292</v>
       </c>
       <c r="F27" t="n">
-        <v>15658348.00037265</v>
+        <v>4610757.763931289</v>
       </c>
       <c r="G27" t="n">
-        <v>15731418.95996797</v>
+        <v>4628300.884311274</v>
       </c>
       <c r="H27" t="n">
-        <v>15800863.77020973</v>
+        <v>4644851.635761552</v>
       </c>
       <c r="I27" t="n">
-        <v>15866884.47805375</v>
+        <v>4660473.450789049</v>
       </c>
       <c r="J27" t="n">
-        <v>15929671.6676203</v>
+        <v>4675225.577022828</v>
       </c>
       <c r="K27" t="n">
-        <v>15989405.02457923</v>
+        <v>4689163.317009442</v>
       </c>
       <c r="L27" t="n">
-        <v>16046253.88998389</v>
+        <v>4702338.26427152</v>
       </c>
       <c r="M27" t="n">
-        <v>16100377.80060738</v>
+        <v>4714798.533239812</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10800464.42622769</v>
+        <v>10627999.3850271</v>
       </c>
       <c r="C28" t="n">
-        <v>10988926.36226153</v>
+        <v>10626010.53833558</v>
       </c>
       <c r="D28" t="n">
-        <v>11168747.33267903</v>
+        <v>10623665.23974624</v>
       </c>
       <c r="E28" t="n">
-        <v>11340306.55439579</v>
+        <v>10621027.71223995</v>
       </c>
       <c r="F28" t="n">
-        <v>11503975.81371129</v>
+        <v>10618153.16564466</v>
       </c>
       <c r="G28" t="n">
-        <v>11660117.80391765</v>
+        <v>10615088.99472474</v>
       </c>
       <c r="H28" t="n">
-        <v>11809084.84136033</v>
+        <v>10611875.82263769</v>
       </c>
       <c r="I28" t="n">
-        <v>11951217.9049809</v>
+        <v>10608548.40877578</v>
       </c>
       <c r="J28" t="n">
-        <v>12086845.9504627</v>
+        <v>10605136.43791889</v>
       </c>
       <c r="K28" t="n">
-        <v>12216285.45572233</v>
+        <v>10601665.20569535</v>
       </c>
       <c r="L28" t="n">
-        <v>12339840.15991485</v>
+        <v>10598156.21362691</v>
       </c>
       <c r="M28" t="n">
-        <v>12457800.9627732</v>
+        <v>10594627.68538953</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12242226.87359083</v>
+        <v>1890803.686008774</v>
       </c>
       <c r="C29" t="n">
-        <v>12423718.87258863</v>
+        <v>1909525.003485218</v>
       </c>
       <c r="D29" t="n">
-        <v>12596323.84681165</v>
+        <v>1927229.176832322</v>
       </c>
       <c r="E29" t="n">
-        <v>12760492.71542406</v>
+        <v>1943978.683230095</v>
       </c>
       <c r="F29" t="n">
-        <v>12916658.98974288</v>
+        <v>1959832.123523034</v>
       </c>
       <c r="G29" t="n">
-        <v>13065238.21819568</v>
+        <v>1974844.415358998</v>
       </c>
       <c r="H29" t="n">
-        <v>13206627.71881318</v>
+        <v>1989066.988394052</v>
       </c>
       <c r="I29" t="n">
-        <v>13341206.54503477</v>
+        <v>2002547.978486281</v>
       </c>
       <c r="J29" t="n">
-        <v>13469335.63869393</v>
+        <v>2015332.418536481</v>
       </c>
       <c r="K29" t="n">
-        <v>13591358.13115048</v>
+        <v>2027462.424224123</v>
       </c>
       <c r="L29" t="n">
-        <v>13707599.75961912</v>
+        <v>2038977.373368826</v>
       </c>
       <c r="M29" t="n">
-        <v>13818369.37109339</v>
+        <v>2049914.078032374</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>39299713.52873921</v>
+        <v>619372.3556839898</v>
       </c>
       <c r="C30" t="n">
-        <v>39446931.82213521</v>
+        <v>622331.3097345531</v>
       </c>
       <c r="D30" t="n">
-        <v>39587268.54791641</v>
+        <v>625080.779920131</v>
       </c>
       <c r="E30" t="n">
-        <v>39721008.55417705</v>
+        <v>627638.3339604661</v>
       </c>
       <c r="F30" t="n">
-        <v>39848435.30791938</v>
+        <v>630019.9354669787</v>
       </c>
       <c r="G30" t="n">
-        <v>39969828.73495591</v>
+        <v>632240.0914684869</v>
       </c>
       <c r="H30" t="n">
-        <v>40085463.49500275</v>
+        <v>634311.9878231138</v>
       </c>
       <c r="I30" t="n">
-        <v>40195607.62911391</v>
+        <v>636247.613081269</v>
       </c>
       <c r="J30" t="n">
-        <v>40300521.52351785</v>
+        <v>638057.8714469336</v>
       </c>
       <c r="K30" t="n">
-        <v>40400457.14078927</v>
+        <v>639752.6855445504</v>
       </c>
       <c r="L30" t="n">
-        <v>40495657.47543752</v>
+        <v>641341.0897177681</v>
       </c>
       <c r="M30" t="n">
-        <v>40586356.19638002</v>
+        <v>642831.3145885691</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37805247.91330194</v>
+        <v>873869.4218767285</v>
       </c>
       <c r="C31" t="n">
-        <v>37848685.03281629</v>
+        <v>878920.2726704627</v>
       </c>
       <c r="D31" t="n">
-        <v>37890332.94516414</v>
+        <v>883756.8349892199</v>
       </c>
       <c r="E31" t="n">
-        <v>37930217.88405061</v>
+        <v>888386.6833967343</v>
       </c>
       <c r="F31" t="n">
-        <v>37968374.82159853</v>
+        <v>892817.4302201048</v>
       </c>
       <c r="G31" t="n">
-        <v>38004845.58773535</v>
+        <v>897056.6734877378</v>
       </c>
       <c r="H31" t="n">
-        <v>38039677.26663381</v>
+        <v>901111.9519565329</v>
       </c>
       <c r="I31" t="n">
-        <v>38072920.83773404</v>
+        <v>904990.7067795247</v>
       </c>
       <c r="J31" t="n">
-        <v>38104630.03126132</v>
+        <v>908700.249319829</v>
       </c>
       <c r="K31" t="n">
-        <v>38134860.37077779</v>
+        <v>912247.7345713973</v>
       </c>
       <c r="L31" t="n">
-        <v>38163668.37804931</v>
+        <v>915640.1396396086</v>
       </c>
       <c r="M31" t="n">
-        <v>38191110.91788059</v>
+        <v>918884.2467450574</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>631394.5949759856</v>
+        <v>1707292.634074317</v>
       </c>
       <c r="C32" t="n">
-        <v>643615.2368705869</v>
+        <v>1713368.522259334</v>
       </c>
       <c r="D32" t="n">
-        <v>655290.256458059</v>
+        <v>1719084.76954264</v>
       </c>
       <c r="E32" t="n">
-        <v>666442.0147775859</v>
+        <v>1724466.396797789</v>
       </c>
       <c r="F32" t="n">
-        <v>677092.6634618789</v>
+        <v>1729536.502831705</v>
       </c>
       <c r="G32" t="n">
-        <v>687264.0070610642</v>
+        <v>1734316.419031015</v>
       </c>
       <c r="H32" t="n">
-        <v>696977.392722562</v>
+        <v>1738825.851657519</v>
       </c>
       <c r="I32" t="n">
-        <v>706253.6234983578</v>
+        <v>1743083.012710299</v>
       </c>
       <c r="J32" t="n">
-        <v>715112.8919150084</v>
+        <v>1747104.740209343</v>
       </c>
       <c r="K32" t="n">
-        <v>723574.7308226228</v>
+        <v>1750906.608706785</v>
       </c>
       <c r="L32" t="n">
-        <v>731657.9788704813</v>
+        <v>1754503.030774999</v>
       </c>
       <c r="M32" t="n">
-        <v>739380.7582822144</v>
+        <v>1757907.350174377</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3799148.08211042</v>
+        <v>2411952.0544651</v>
       </c>
       <c r="C33" t="n">
-        <v>3828978.245809093</v>
+        <v>2422786.469578587</v>
       </c>
       <c r="D33" t="n">
-        <v>3857307.279433012</v>
+        <v>2433013.800610039</v>
       </c>
       <c r="E33" t="n">
-        <v>3884216.737077177</v>
+        <v>2442674.553036984</v>
       </c>
       <c r="F33" t="n">
-        <v>3909784.110521629</v>
+        <v>2451806.116844848</v>
       </c>
       <c r="G33" t="n">
-        <v>3934082.928175241</v>
+        <v>2460443.043472983</v>
       </c>
       <c r="H33" t="n">
-        <v>3957182.871154875</v>
+        <v>2468617.293584708</v>
       </c>
       <c r="I33" t="n">
-        <v>3979149.902366564</v>
+        <v>2476358.45934213</v>
       </c>
       <c r="J33" t="n">
-        <v>4000046.405043274</v>
+        <v>2483693.96433337</v>
       </c>
       <c r="K33" t="n">
-        <v>4019931.327677891</v>
+        <v>2490649.243850235</v>
       </c>
       <c r="L33" t="n">
-        <v>4038860.332824647</v>
+        <v>2497247.907829504</v>
       </c>
       <c r="M33" t="n">
-        <v>4056885.947588444</v>
+        <v>2503511.888447866</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10084809.36788619</v>
+        <v>2752844.321126983</v>
       </c>
       <c r="C34" t="n">
-        <v>10165171.07135218</v>
+        <v>2761752.249776796</v>
       </c>
       <c r="D34" t="n">
-        <v>10241330.12053081</v>
+        <v>2770219.450811021</v>
       </c>
       <c r="E34" t="n">
-        <v>10313528.08643872</v>
+        <v>2778267.852021106</v>
       </c>
       <c r="F34" t="n">
-        <v>10381993.36445513</v>
+        <v>2785918.551670097</v>
       </c>
       <c r="G34" t="n">
-        <v>10446941.59999388</v>
+        <v>2793191.801433012</v>
       </c>
       <c r="H34" t="n">
-        <v>10508576.1628713</v>
+        <v>2800106.998604663</v>
       </c>
       <c r="I34" t="n">
-        <v>10567088.65493965</v>
+        <v>2806682.686272949</v>
       </c>
       <c r="J34" t="n">
-        <v>10622659.43835393</v>
+        <v>2812936.560234815</v>
       </c>
       <c r="K34" t="n">
-        <v>10675458.17412513</v>
+        <v>2818885.481544569</v>
       </c>
       <c r="L34" t="n">
-        <v>10725644.36271507</v>
+        <v>2824545.493675925</v>
       </c>
       <c r="M34" t="n">
-        <v>10773367.88004881</v>
+        <v>2829931.843391322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4895511.080590338</v>
+        <v>1661266.795925118</v>
       </c>
       <c r="C35" t="n">
-        <v>4931397.207150578</v>
+        <v>1667283.198843248</v>
       </c>
       <c r="D35" t="n">
-        <v>4965348.571311504</v>
+        <v>1672855.189730581</v>
       </c>
       <c r="E35" t="n">
-        <v>4997484.874218315</v>
+        <v>1678022.219098415</v>
       </c>
       <c r="F35" t="n">
-        <v>5027917.929294273</v>
+        <v>1682819.835319985</v>
       </c>
       <c r="G35" t="n">
-        <v>5056752.175130606</v>
+        <v>1687280.090018433</v>
       </c>
       <c r="H35" t="n">
-        <v>5084085.159557208</v>
+        <v>1691431.90190766</v>
       </c>
       <c r="I35" t="n">
-        <v>5110007.995623827</v>
+        <v>1695301.382840078</v>
       </c>
       <c r="J35" t="n">
-        <v>5134605.790430099</v>
+        <v>1698912.129623018</v>
       </c>
       <c r="K35" t="n">
-        <v>5157958.047797695</v>
+        <v>1702285.484955192</v>
       </c>
       <c r="L35" t="n">
-        <v>5180139.045885369</v>
+        <v>1705440.770582531</v>
       </c>
       <c r="M35" t="n">
-        <v>5201218.190888613</v>
+        <v>1708395.495525233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3175577.680160463</v>
+        <v>1200036.473076522</v>
       </c>
       <c r="C36" t="n">
-        <v>3172489.269710444</v>
+        <v>1198735.406828225</v>
       </c>
       <c r="D36" t="n">
-        <v>3169537.34788017</v>
+        <v>1197431.772126667</v>
       </c>
       <c r="E36" t="n">
-        <v>3166716.19111748</v>
+        <v>1196131.892791435</v>
       </c>
       <c r="F36" t="n">
-        <v>3164019.928860843</v>
+        <v>1194841.070136458</v>
       </c>
       <c r="G36" t="n">
-        <v>3161442.659509286</v>
+        <v>1193563.713176169</v>
       </c>
       <c r="H36" t="n">
-        <v>3158978.537849031</v>
+        <v>1192303.4544826</v>
       </c>
       <c r="I36" t="n">
-        <v>3156621.839758091</v>
+        <v>1191063.252961487</v>
       </c>
       <c r="J36" t="n">
-        <v>3154367.008894473</v>
+        <v>1189845.484755605</v>
       </c>
       <c r="K36" t="n">
-        <v>3152208.689195588</v>
+        <v>1188652.023432717</v>
       </c>
       <c r="L36" t="n">
-        <v>3150141.746272318</v>
+        <v>1187484.310541146</v>
       </c>
       <c r="M36" t="n">
-        <v>3148161.280176364</v>
+        <v>1186343.41753988</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5369046.382557258</v>
+        <v>3816388.692923911</v>
       </c>
       <c r="C37" t="n">
-        <v>5373896.94852604</v>
+        <v>3815659.171980739</v>
       </c>
       <c r="D37" t="n">
-        <v>5378524.828828126</v>
+        <v>3814888.644980252</v>
       </c>
       <c r="E37" t="n">
-        <v>5382938.0322126</v>
+        <v>3814084.892367229</v>
       </c>
       <c r="F37" t="n">
-        <v>5387144.630861476</v>
+        <v>3813254.742616639</v>
       </c>
       <c r="G37" t="n">
-        <v>5391152.701729417</v>
+        <v>3812404.173414126</v>
       </c>
       <c r="H37" t="n">
-        <v>5394970.275171757</v>
+        <v>3811538.403788827</v>
       </c>
       <c r="I37" t="n">
-        <v>5398605.290633664</v>
+        <v>3810661.977679513</v>
       </c>
       <c r="J37" t="n">
-        <v>5402065.559047565</v>
+        <v>3809778.839474455</v>
       </c>
       <c r="K37" t="n">
-        <v>5405358.731472343</v>
+        <v>3808892.402077243</v>
       </c>
       <c r="L37" t="n">
-        <v>5408492.273449987</v>
+        <v>3808005.608074106</v>
       </c>
       <c r="M37" t="n">
-        <v>5411473.444544971</v>
+        <v>3807120.984561063</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2629012.436044633</v>
+        <v>3878525.68685621</v>
       </c>
       <c r="C38" t="n">
-        <v>2606566.792977408</v>
+        <v>3893437.199140295</v>
       </c>
       <c r="D38" t="n">
-        <v>2585096.377799332</v>
+        <v>3907572.657266155</v>
       </c>
       <c r="E38" t="n">
-        <v>2564564.996031314</v>
+        <v>3920975.222552747</v>
       </c>
       <c r="F38" t="n">
-        <v>2544935.850034252</v>
+        <v>3933685.828011319</v>
       </c>
       <c r="G38" t="n">
-        <v>2526171.994020209</v>
+        <v>3945743.244180158</v>
       </c>
       <c r="H38" t="n">
-        <v>2508236.698597044</v>
+        <v>3957184.152100489</v>
       </c>
       <c r="I38" t="n">
-        <v>2491093.739457577</v>
+        <v>3968043.22149305</v>
       </c>
       <c r="J38" t="n">
-        <v>2474707.622664958</v>
+        <v>3978353.192461461</v>
       </c>
       <c r="K38" t="n">
-        <v>2459043.757145569</v>
+        <v>3988144.959328368</v>
       </c>
       <c r="L38" t="n">
-        <v>2444068.583408356</v>
+        <v>3997447.655424982</v>
       </c>
       <c r="M38" t="n">
-        <v>2429749.66613397</v>
+        <v>4006288.737854928</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3271316.296621174</v>
+        <v>4675193.014727809</v>
       </c>
       <c r="C39" t="n">
-        <v>3283889.723785207</v>
+        <v>4686758.025899343</v>
       </c>
       <c r="D39" t="n">
-        <v>3295944.883395344</v>
+        <v>4697699.537814885</v>
       </c>
       <c r="E39" t="n">
-        <v>3307495.443056397</v>
+        <v>4708054.106178775</v>
       </c>
       <c r="F39" t="n">
-        <v>3318556.246917941</v>
+        <v>4717856.238425754</v>
       </c>
       <c r="G39" t="n">
-        <v>3329142.99582617</v>
+        <v>4727138.470934458</v>
       </c>
       <c r="H39" t="n">
-        <v>3339271.975113824</v>
+        <v>4735931.450328276</v>
       </c>
       <c r="I39" t="n">
-        <v>3348959.824741296</v>
+        <v>4744264.017419875</v>
       </c>
       <c r="J39" t="n">
-        <v>3358223.346825302</v>
+        <v>4752163.292531192</v>
       </c>
       <c r="K39" t="n">
-        <v>3367079.34592995</v>
+        <v>4759654.761109985</v>
       </c>
       <c r="L39" t="n">
-        <v>3375544.497914322</v>
+        <v>4766762.358740985</v>
       </c>
       <c r="M39" t="n">
-        <v>3383635.243506037</v>
+        <v>4773508.554802708</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11273730.75141883</v>
+        <v>4717683.476724818</v>
       </c>
       <c r="C40" t="n">
-        <v>11324628.68839276</v>
+        <v>4726476.593018264</v>
       </c>
       <c r="D40" t="n">
-        <v>11372979.14623362</v>
+        <v>4734699.087768037</v>
       </c>
       <c r="E40" t="n">
-        <v>11418915.76795352</v>
+        <v>4742392.858662337</v>
       </c>
       <c r="F40" t="n">
-        <v>11462566.23635116</v>
+        <v>4749596.483156163</v>
       </c>
       <c r="G40" t="n">
-        <v>11504052.30536175</v>
+        <v>4756345.484142959</v>
       </c>
       <c r="H40" t="n">
-        <v>11543489.87764281</v>
+        <v>4762672.576509442</v>
       </c>
       <c r="I40" t="n">
-        <v>11580989.11956471</v>
+        <v>4768607.895375442</v>
       </c>
       <c r="J40" t="n">
-        <v>11616654.60584778</v>
+        <v>4774179.206919225</v>
       </c>
       <c r="K40" t="n">
-        <v>11650585.48718995</v>
+        <v>4779412.102759818</v>
       </c>
       <c r="L40" t="n">
-        <v>11682875.6751104</v>
+        <v>4784330.17888492</v>
       </c>
       <c r="M40" t="n">
-        <v>11713614.0391075</v>
+        <v>4788955.200136991</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7127045.410188735</v>
+        <v>2845407.62495935</v>
       </c>
       <c r="C41" t="n">
-        <v>7130408.797394052</v>
+        <v>2852768.456065852</v>
       </c>
       <c r="D41" t="n">
-        <v>7133598.039384529</v>
+        <v>2859704.092282686</v>
       </c>
       <c r="E41" t="n">
-        <v>7136615.10857828</v>
+        <v>2866241.37866364</v>
       </c>
       <c r="F41" t="n">
-        <v>7139463.170896679</v>
+        <v>2872405.46861773</v>
       </c>
       <c r="G41" t="n">
-        <v>7142146.32114841</v>
+        <v>2878219.91040026</v>
       </c>
       <c r="H41" t="n">
-        <v>7144669.361385316</v>
+        <v>2883706.733719543</v>
       </c>
       <c r="I41" t="n">
-        <v>7147037.616017476</v>
+        <v>2888886.535378214</v>
       </c>
       <c r="J41" t="n">
-        <v>7149256.778365716</v>
+        <v>2893778.56313543</v>
       </c>
       <c r="K41" t="n">
-        <v>7151332.78398715</v>
+        <v>2898400.797133863</v>
       </c>
       <c r="L41" t="n">
-        <v>7153271.70679903</v>
+        <v>2902770.028439347</v>
       </c>
       <c r="M41" t="n">
-        <v>7155079.674528673</v>
+        <v>2906901.934346765</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9227082.35490784</v>
+        <v>3750949.186269447</v>
       </c>
       <c r="C42" t="n">
-        <v>9274666.272209108</v>
+        <v>3758176.35575822</v>
       </c>
       <c r="D42" t="n">
-        <v>9319871.912521511</v>
+        <v>3764962.658547487</v>
       </c>
       <c r="E42" t="n">
-        <v>9362824.984049767</v>
+        <v>3771337.638257191</v>
       </c>
       <c r="F42" t="n">
-        <v>9403645.381495088</v>
+        <v>3777328.828321896</v>
       </c>
       <c r="G42" t="n">
-        <v>9442447.264387637</v>
+        <v>3782961.869537763</v>
       </c>
       <c r="H42" t="n">
-        <v>9479339.169545293</v>
+        <v>3788260.625617053</v>
       </c>
       <c r="I42" t="n">
-        <v>9514424.151073188</v>
+        <v>3793247.295621503</v>
       </c>
       <c r="J42" t="n">
-        <v>9547799.942084223</v>
+        <v>3797942.522449821</v>
       </c>
       <c r="K42" t="n">
-        <v>9579559.132984132</v>
+        <v>3802365.496790271</v>
       </c>
       <c r="L42" t="n">
-        <v>9609789.361810088</v>
+        <v>3806534.056149542</v>
       </c>
       <c r="M42" t="n">
-        <v>9638573.512801588</v>
+        <v>3810464.778725829</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4989804.532304328</v>
+        <v>2870540.330976684</v>
       </c>
       <c r="C43" t="n">
-        <v>4987475.879291341</v>
+        <v>2874932.73764056</v>
       </c>
       <c r="D43" t="n">
-        <v>4985315.285170313</v>
+        <v>2879079.295584835</v>
       </c>
       <c r="E43" t="n">
-        <v>4983305.737656124</v>
+        <v>2882993.094305739</v>
       </c>
       <c r="F43" t="n">
-        <v>4981432.041900679</v>
+        <v>2886686.805295728</v>
       </c>
       <c r="G43" t="n">
-        <v>4979680.639397178</v>
+        <v>2890172.63008216</v>
       </c>
       <c r="H43" t="n">
-        <v>4978039.440406214</v>
+        <v>2893462.265630219</v>
       </c>
       <c r="I43" t="n">
-        <v>4976497.670140598</v>
+        <v>2896566.883652162</v>
       </c>
       <c r="J43" t="n">
-        <v>4975045.728522427</v>
+        <v>2899497.120951068</v>
       </c>
       <c r="K43" t="n">
-        <v>4973675.063015755</v>
+        <v>2902263.078421615</v>
       </c>
       <c r="L43" t="n">
-        <v>4972378.053848244</v>
+        <v>2904874.326767348</v>
       </c>
       <c r="M43" t="n">
-        <v>4971147.910812397</v>
+        <v>2907339.917326622</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10833352.19999114</v>
+        <v>5430555.791015487</v>
       </c>
       <c r="C44" t="n">
-        <v>10873537.31746984</v>
+        <v>5441025.123705816</v>
       </c>
       <c r="D44" t="n">
-        <v>10911899.69190899</v>
+        <v>5450916.077095155</v>
       </c>
       <c r="E44" t="n">
-        <v>10948512.9373517</v>
+        <v>5460260.903949767</v>
       </c>
       <c r="F44" t="n">
-        <v>10983450.17304152</v>
+        <v>5469090.408911321</v>
       </c>
       <c r="G44" t="n">
-        <v>11016783.55934304</v>
+        <v>5477433.93056095</v>
       </c>
       <c r="H44" t="n">
-        <v>11048583.91690299</v>
+        <v>5485319.343698986</v>
       </c>
       <c r="I44" t="n">
-        <v>11078920.41998041</v>
+        <v>5492773.077497605</v>
       </c>
       <c r="J44" t="n">
-        <v>11107860.35508916</v>
+        <v>5499820.145926312</v>
       </c>
       <c r="K44" t="n">
-        <v>11135468.93663093</v>
+        <v>5506484.187466711</v>
       </c>
       <c r="L44" t="n">
-        <v>11161809.17174485</v>
+        <v>5512787.511652827</v>
       </c>
       <c r="M44" t="n">
-        <v>11186941.76730174</v>
+        <v>5518751.150416229</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4684306.766115613</v>
+        <v>2799715.861398149</v>
       </c>
       <c r="C45" t="n">
-        <v>4712987.305273637</v>
+        <v>2805803.472875223</v>
       </c>
       <c r="D45" t="n">
-        <v>4740135.07182565</v>
+        <v>2811547.677148934</v>
       </c>
       <c r="E45" t="n">
-        <v>4765837.291022167</v>
+        <v>2816967.864495162</v>
       </c>
       <c r="F45" t="n">
-        <v>4790176.799435921</v>
+        <v>2822082.584994979</v>
       </c>
       <c r="G45" t="n">
-        <v>4813232.102003768</v>
+        <v>2826909.522713918</v>
       </c>
       <c r="H45" t="n">
-        <v>4835077.465535846</v>
+        <v>2831465.48617224</v>
       </c>
       <c r="I45" t="n">
-        <v>4855783.039899744</v>
+        <v>2835766.411595002</v>
       </c>
       <c r="J45" t="n">
-        <v>4875414.999575172</v>
+        <v>2839827.376034159</v>
       </c>
       <c r="K45" t="n">
-        <v>4894035.699556816</v>
+        <v>2843662.617980029</v>
       </c>
       <c r="L45" t="n">
-        <v>4911703.84067481</v>
+        <v>2847285.563510235</v>
       </c>
       <c r="M45" t="n">
-        <v>4928474.640339386</v>
+        <v>2850708.856384125</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10988402.65358765</v>
+        <v>2150656.044311076</v>
       </c>
       <c r="C46" t="n">
-        <v>10998049.67619857</v>
+        <v>2150683.131239459</v>
       </c>
       <c r="D46" t="n">
-        <v>11006843.30391528</v>
+        <v>2150694.445492551</v>
       </c>
       <c r="E46" t="n">
-        <v>11014869.20244012</v>
+        <v>2150690.3525442</v>
       </c>
       <c r="F46" t="n">
-        <v>11022203.50268483</v>
+        <v>2150671.330360837</v>
       </c>
       <c r="G46" t="n">
-        <v>11028913.93016243</v>
+        <v>2150637.943319824</v>
       </c>
       <c r="H46" t="n">
-        <v>11035060.79793915</v>
+        <v>2150590.819805138</v>
       </c>
       <c r="I46" t="n">
-        <v>11040697.87899946</v>
+        <v>2150530.633165687</v>
       </c>
       <c r="J46" t="n">
-        <v>11045873.17234001</v>
+        <v>2150458.085707717</v>
       </c>
       <c r="K46" t="n">
-        <v>11050629.57563408</v>
+        <v>2150373.895387087</v>
       </c>
       <c r="L46" t="n">
-        <v>11055005.47580647</v>
+        <v>2150278.784877155</v>
       </c>
       <c r="M46" t="n">
-        <v>11059035.2676535</v>
+        <v>2150173.472700343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1866537.49810826</v>
+        <v>1860336.381486341</v>
       </c>
       <c r="C47" t="n">
-        <v>1886666.46557685</v>
+        <v>1881019.466048822</v>
       </c>
       <c r="D47" t="n">
-        <v>1905726.491560981</v>
+        <v>1900596.127063885</v>
       </c>
       <c r="E47" t="n">
-        <v>1923780.891008317</v>
+        <v>1919132.362673238</v>
       </c>
       <c r="F47" t="n">
-        <v>1940889.306163192</v>
+        <v>1936690.339643553</v>
       </c>
       <c r="G47" t="n">
-        <v>1957107.855389021</v>
+        <v>1953328.541405946</v>
       </c>
       <c r="H47" t="n">
-        <v>1972489.290693924</v>
+        <v>1969101.927769542</v>
       </c>
       <c r="I47" t="n">
-        <v>1987083.160036355</v>
+        <v>1984062.101586409</v>
       </c>
       <c r="J47" t="n">
-        <v>2000935.9713092</v>
+        <v>1998257.478629269</v>
       </c>
       <c r="K47" t="n">
-        <v>2014091.355576955</v>
+        <v>2011733.457752421</v>
       </c>
       <c r="L47" t="n">
-        <v>2026590.227706157</v>
+        <v>2024532.589083724</v>
       </c>
       <c r="M47" t="n">
-        <v>2038470.942978159</v>
+        <v>2036694.738529727</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>621969.8826322854</v>
+        <v>4595488.317585006</v>
       </c>
       <c r="C48" t="n">
-        <v>625560.6022150591</v>
+        <v>4619085.673215397</v>
       </c>
       <c r="D48" t="n">
-        <v>628911.4161379151</v>
+        <v>4641409.161872067</v>
       </c>
       <c r="E48" t="n">
-        <v>632041.2711598463</v>
+        <v>4662534.013462663</v>
       </c>
       <c r="F48" t="n">
-        <v>634967.4934838749</v>
+        <v>4682531.25307142</v>
       </c>
       <c r="G48" t="n">
-        <v>637705.9258123077</v>
+        <v>4701467.836776897</v>
       </c>
       <c r="H48" t="n">
-        <v>640271.0547815412</v>
+        <v>4719406.805154115</v>
       </c>
       <c r="I48" t="n">
-        <v>642676.1289092563</v>
+        <v>4736407.448777586</v>
       </c>
       <c r="J48" t="n">
-        <v>644933.2673412748</v>
+        <v>4752525.481115744</v>
       </c>
       <c r="K48" t="n">
-        <v>647053.5597906485</v>
+        <v>4767813.215100773</v>
       </c>
       <c r="L48" t="n">
-        <v>649047.1581387296</v>
+        <v>4782319.740410142</v>
       </c>
       <c r="M48" t="n">
-        <v>650923.3601982147</v>
+        <v>4796091.099147998</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>713522.8461117223</v>
+        <v>678620.5858501643</v>
       </c>
       <c r="C49" t="n">
-        <v>714919.1370055117</v>
+        <v>683524.4197183736</v>
       </c>
       <c r="D49" t="n">
-        <v>716248.0359034427</v>
+        <v>688191.0399376266</v>
       </c>
       <c r="E49" t="n">
-        <v>717513.0370789133</v>
+        <v>692632.2275488898</v>
       </c>
       <c r="F49" t="n">
-        <v>718717.4378379211</v>
+        <v>696859.3180829287</v>
       </c>
       <c r="G49" t="n">
-        <v>719864.35434312</v>
+        <v>700883.1904798523</v>
       </c>
       <c r="H49" t="n">
-        <v>720956.7349276654</v>
+        <v>704714.2617341392</v>
       </c>
       <c r="I49" t="n">
-        <v>721997.3714544177</v>
+        <v>708362.4863811843</v>
       </c>
       <c r="J49" t="n">
-        <v>722988.9091545679</v>
+        <v>711837.3600214235</v>
       </c>
       <c r="K49" t="n">
-        <v>723933.8552818596</v>
+        <v>715147.9261607677</v>
       </c>
       <c r="L49" t="n">
-        <v>724834.5868381485</v>
+        <v>718302.7857270055</v>
       </c>
       <c r="M49" t="n">
-        <v>725693.3575692363</v>
+        <v>721310.1087008901</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1723817.384737048</v>
+        <v>2520498.062014937</v>
       </c>
       <c r="C50" t="n">
-        <v>1731086.41660226</v>
+        <v>2541314.148730673</v>
       </c>
       <c r="D50" t="n">
-        <v>1737941.179329555</v>
+        <v>2561019.822153173</v>
       </c>
       <c r="E50" t="n">
-        <v>1744409.253847017</v>
+        <v>2579681.442824923</v>
       </c>
       <c r="F50" t="n">
-        <v>1750516.204399277</v>
+        <v>2597361.410202414</v>
       </c>
       <c r="G50" t="n">
-        <v>1756285.732658239</v>
+        <v>2614118.34914951</v>
       </c>
       <c r="H50" t="n">
-        <v>1761739.820065978</v>
+        <v>2630007.298588999</v>
       </c>
       <c r="I50" t="n">
-        <v>1766898.859275022</v>
+        <v>2645079.899719596</v>
       </c>
       <c r="J50" t="n">
-        <v>1771781.775489202</v>
+        <v>2659384.581741452</v>
       </c>
       <c r="K50" t="n">
-        <v>1776406.138449227</v>
+        <v>2672966.743492827</v>
       </c>
       <c r="L50" t="n">
-        <v>1780788.265757062</v>
+        <v>2685868.929774836</v>
       </c>
       <c r="M50" t="n">
-        <v>1784943.318186576</v>
+        <v>2698131.001469508</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2380670.666620545</v>
+        <v>2688741.278100967</v>
       </c>
       <c r="C51" t="n">
-        <v>2392177.108721033</v>
+        <v>2716332.966552839</v>
       </c>
       <c r="D51" t="n">
-        <v>2403032.594562314</v>
+        <v>2742521.137305513</v>
       </c>
       <c r="E51" t="n">
-        <v>2413281.186845683</v>
+        <v>2767382.471517488</v>
       </c>
       <c r="F51" t="n">
-        <v>2422963.505287558</v>
+        <v>2790989.94782795</v>
       </c>
       <c r="G51" t="n">
-        <v>2432117.034851067</v>
+        <v>2813412.88979882</v>
       </c>
       <c r="H51" t="n">
-        <v>2440776.402135924</v>
+        <v>2834717.040624529</v>
       </c>
       <c r="I51" t="n">
-        <v>2448973.623704493</v>
+        <v>2854964.658966005</v>
       </c>
       <c r="J51" t="n">
-        <v>2456738.329628177</v>
+        <v>2874214.630737141</v>
       </c>
       <c r="K51" t="n">
-        <v>2464097.965112135</v>
+        <v>2892522.592466995</v>
       </c>
       <c r="L51" t="n">
-        <v>2471077.972688146</v>
+        <v>2909941.062608153</v>
       </c>
       <c r="M51" t="n">
-        <v>2477701.95713459</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2758688.991106763</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2768505.406274915</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2777852.190477446</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2786751.411686897</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2795224.436591327</v>
-      </c>
-      <c r="G52" t="n">
-        <v>2803291.893985122</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2810973.649406537</v>
-      </c>
-      <c r="I52" t="n">
-        <v>2818288.789578632</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2825255.61530377</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2831891.641567513</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2838213.603715718</v>
-      </c>
-      <c r="M52" t="n">
-        <v>2844237.468675569</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1707516.344920247</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1716026.646978838</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1723976.131357204</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1731409.561868479</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1738367.680201029</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1744887.5871257</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1751003.088618506</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1756745.009486709</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1762141.477076605</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1767218.177595632</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1771998.587460496</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1776504.18195724</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1223165.647282153</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1222609.805989012</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1222014.878459692</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1221388.936735228</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1220738.986522213</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1220071.089956313</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1219390.47600726</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1218701.639450826</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1218008.429347605</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1217314.127928756</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1216621.520767093</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1215932.959061012</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3895475.95815495</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3896753.907889511</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3897911.948435487</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3898960.247134756</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3899908.107446967</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3900764.038477628</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3901535.820124475</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3902230.563831042</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3902854.769028442</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3903414.375382897</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3903914.811021805</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3904361.036931802</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3895485.843139485</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3912273.285078987</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3928219.964828208</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3943370.207771316</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3957766.281436592</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3971448.427736297</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3984454.906378061</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3996822.04714945</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4008584.30907473</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4019774.344713837</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4030423.068134636</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4040559.725298226</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4714042.405989684</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4727705.321609896</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4740663.742463034</v>
-      </c>
-      <c r="E57" t="n">
-        <v>4752956.422318086</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4764620.171738956</v>
-      </c>
-      <c r="G57" t="n">
-        <v>4775689.907200184</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4786198.707364243</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4796177.87495406</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4805657.002807725</v>
-      </c>
-      <c r="K57" t="n">
-        <v>4814664.042849179</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4823225.376881626</v>
-      </c>
-      <c r="M57" t="n">
-        <v>4831365.888235953</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4754119.689991245</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4765179.579984633</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4775570.422842283</v>
-      </c>
-      <c r="E58" t="n">
-        <v>4785337.928964263</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4794524.477911826</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4803169.35710609</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4811308.986442383</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4818977.128933074</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4826205.087682445</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4833021.889621757</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4839454.456525266</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4845527.763897557</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2904970.637222081</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2914690.082754336</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2923897.549097799</v>
-      </c>
-      <c r="E59" t="n">
-        <v>2932621.891072832</v>
-      </c>
-      <c r="F59" t="n">
-        <v>2940890.455597647</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2948729.124590583</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2956162.363771118</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2963213.275722243</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2969903.655851617</v>
-      </c>
-      <c r="K59" t="n">
-        <v>2976254.050109953</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2982283.813529454</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2988011.168815754</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3829238.362633124</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3839273.573331885</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3848758.492449597</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3857725.525248338</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3866205.261270329</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3874226.540073603</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3881816.522058882</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3889000.762562316</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3895803.287726346</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3902246.670929607</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3908352.108812064</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3914139.496122144</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2894335.064617427</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2899521.939751035</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2904440.548582152</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2909103.055190489</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2913521.506574623</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2917707.736150891</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2921673.28970013</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2925429.369894961</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2928986.796127986</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2932355.976866184</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2935546.892191982</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2938569.084564818</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5515630.57034196</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5529206.985403508</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5542105.183963716</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5554357.70855701</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5565996.201150194</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5577051.291538507</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5587552.517570376</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5597528.271726385</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5607005.769381732</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5616011.034768492</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5624568.901252508</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5632703.023070335</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2828592.073049631</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2836014.708775965</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2843062.141061844</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2849752.822064718</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2856104.691145558</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2862135.101455649</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2867860.768126654</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2873297.734139999</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2878461.350559706</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2883366.268325699</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2888026.43925993</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2892455.124316618</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2217956.441286758</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2219672.452950448</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2221313.46297913</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2222881.235473938</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2224377.743824705</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2225805.122318365</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2227165.623913363</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2228461.583728977</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2229695.387761347</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2230869.446334399</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2231986.171787374</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2233047.959923439</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1817383.564460054</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1839091.365544438</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1859660.550240532</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1879156.803278573</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1897642.253265724</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1915175.572366863</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1931812.0943342</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1947603.945377968</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1962600.183431566</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1976846.942234993</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1990387.577399932</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2003262.812231272</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4626589.154277846</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4653339.398557961</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4678707.008531615</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4702768.600584924</v>
-      </c>
-      <c r="F66" t="n">
-        <v>4725597.013160408</v>
-      </c>
-      <c r="G66" t="n">
-        <v>4747261.361825213</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4767827.122174278</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4787356.233951777</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4805907.220875055</v>
-      </c>
-      <c r="K66" t="n">
-        <v>4823535.321583554</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4840292.627954677</v>
-      </c>
-      <c r="M66" t="n">
-        <v>4856228.227704987</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>668357.1729971692</v>
-      </c>
-      <c r="C67" t="n">
-        <v>673378.0043704659</v>
-      </c>
-      <c r="D67" t="n">
-        <v>678158.7941637859</v>
-      </c>
-      <c r="E67" t="n">
-        <v>682711.3031399399</v>
-      </c>
-      <c r="F67" t="n">
-        <v>687046.8501918614</v>
-      </c>
-      <c r="G67" t="n">
-        <v>691176.3034357205</v>
-      </c>
-      <c r="H67" t="n">
-        <v>695110.0761819407</v>
-      </c>
-      <c r="I67" t="n">
-        <v>698858.1271029785</v>
-      </c>
-      <c r="J67" t="n">
-        <v>702429.9639592692</v>
-      </c>
-      <c r="K67" t="n">
-        <v>705834.6502945796</v>
-      </c>
-      <c r="L67" t="n">
-        <v>709080.8145619035</v>
-      </c>
-      <c r="M67" t="n">
-        <v>712176.661201112</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2483783.370141104</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2505845.074071467</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2526748.146305934</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2546560.201497667</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2565344.982915565</v>
-      </c>
-      <c r="G68" t="n">
-        <v>2583162.524823509</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2600069.320450768</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2616118.492586508</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2631359.964398555</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2645840.62855503</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2659604.513143592</v>
-      </c>
-      <c r="M68" t="n">
-        <v>2672692.943222642</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2607134.451883852</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2635160.306447133</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2661777.96914196</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2687062.804652914</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2711086.70209825</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2733918.096546203</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2755622.019789383</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2776260.174271524</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2795891.02495636</v>
-      </c>
-      <c r="K69" t="n">
-        <v>2814569.904703304</v>
-      </c>
-      <c r="L69" t="n">
-        <v>2832349.129420221</v>
-      </c>
-      <c r="M69" t="n">
-        <v>2849278.119874299</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>12681398.39239883</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12921393.02499866</v>
-      </c>
-      <c r="D70" t="n">
-        <v>13151222.59298277</v>
-      </c>
-      <c r="E70" t="n">
-        <v>13371250.9789114</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13581845.58623791</v>
-      </c>
-      <c r="G70" t="n">
-        <v>13783374.08146763</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13976201.67297316</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14160688.86429024</v>
-      </c>
-      <c r="J70" t="n">
-        <v>14337189.62447596</v>
-      </c>
-      <c r="K70" t="n">
-        <v>14506049.92245483</v>
-      </c>
-      <c r="L70" t="n">
-        <v>14667606.57718706</v>
-      </c>
-      <c r="M70" t="n">
-        <v>14822186.38018847</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>22495229.12089562</v>
-      </c>
-      <c r="C71" t="n">
-        <v>22706734.90829468</v>
-      </c>
-      <c r="D71" t="n">
-        <v>22908268.20213795</v>
-      </c>
-      <c r="E71" t="n">
-        <v>23100301.5767777</v>
-      </c>
-      <c r="F71" t="n">
-        <v>23283292.54499149</v>
-      </c>
-      <c r="G71" t="n">
-        <v>23457682.57962418</v>
-      </c>
-      <c r="H71" t="n">
-        <v>23623896.45437908</v>
-      </c>
-      <c r="I71" t="n">
-        <v>23782341.85203314</v>
-      </c>
-      <c r="J71" t="n">
-        <v>23933409.19484377</v>
-      </c>
-      <c r="K71" t="n">
-        <v>24077471.65787172</v>
-      </c>
-      <c r="L71" t="n">
-        <v>24214885.33130717</v>
-      </c>
-      <c r="M71" t="n">
-        <v>24345989.50250435</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2854939.095317125</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2810145.172235459</v>
-      </c>
-      <c r="D72" t="n">
-        <v>2767208.012526244</v>
-      </c>
-      <c r="E72" t="n">
-        <v>2726071.463949978</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2686676.052916467</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2648960.121565223</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2612860.768069774</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2578314.618148506</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2545258.452428371</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2513629.71116671</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2483366.895099014</v>
-      </c>
-      <c r="M72" t="n">
-        <v>2454409.878667146</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>6617413.342135072</v>
-      </c>
-      <c r="C73" t="n">
-        <v>6698222.334836125</v>
-      </c>
-      <c r="D73" t="n">
-        <v>6775308.840427816</v>
-      </c>
-      <c r="E73" t="n">
-        <v>6848837.427256763</v>
-      </c>
-      <c r="F73" t="n">
-        <v>6918969.299933195</v>
-      </c>
-      <c r="G73" t="n">
-        <v>6985861.601255953</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7049666.87450999</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7110532.66319865</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7168601.227577746</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7224009.35972172</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7276888.280994177</v>
-      </c>
-      <c r="M73" t="n">
-        <v>7327363.6077438</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>18004031.86971688</v>
-      </c>
-      <c r="C74" t="n">
-        <v>18035566.45107108</v>
-      </c>
-      <c r="D74" t="n">
-        <v>18065800.63545281</v>
-      </c>
-      <c r="E74" t="n">
-        <v>18094766.50132418</v>
-      </c>
-      <c r="F74" t="n">
-        <v>18122499.28612041</v>
-      </c>
-      <c r="G74" t="n">
-        <v>18149036.60432392</v>
-      </c>
-      <c r="H74" t="n">
-        <v>18174417.77254719</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18198683.23158139</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18221874.05550891</v>
-      </c>
-      <c r="K74" t="n">
-        <v>18244031.53839654</v>
-      </c>
-      <c r="L74" t="n">
-        <v>18265196.84960771</v>
-      </c>
-      <c r="M74" t="n">
-        <v>18285410.74943912</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25794910.56213701</v>
-      </c>
-      <c r="C75" t="n">
-        <v>25954307.69589472</v>
-      </c>
-      <c r="D75" t="n">
-        <v>26105742.22974324</v>
-      </c>
-      <c r="E75" t="n">
-        <v>26249640.26142514</v>
-      </c>
-      <c r="F75" t="n">
-        <v>26386407.18221068</v>
-      </c>
-      <c r="G75" t="n">
-        <v>26516428.14767432</v>
-      </c>
-      <c r="H75" t="n">
-        <v>26640068.63560438</v>
-      </c>
-      <c r="I75" t="n">
-        <v>26757675.07086909</v>
-      </c>
-      <c r="J75" t="n">
-        <v>26869575.50002933</v>
-      </c>
-      <c r="K75" t="n">
-        <v>26976080.30084705</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27077482.91414785</v>
-      </c>
-      <c r="M75" t="n">
-        <v>27174060.58744609</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>10800464.42622769</v>
-      </c>
-      <c r="C76" t="n">
-        <v>10988926.36226153</v>
-      </c>
-      <c r="D76" t="n">
-        <v>11168747.33267903</v>
-      </c>
-      <c r="E76" t="n">
-        <v>11340306.55439579</v>
-      </c>
-      <c r="F76" t="n">
-        <v>11503975.81371129</v>
-      </c>
-      <c r="G76" t="n">
-        <v>11660117.80391765</v>
-      </c>
-      <c r="H76" t="n">
-        <v>11809084.84136033</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11951217.9049809</v>
-      </c>
-      <c r="J76" t="n">
-        <v>12086845.9504627</v>
-      </c>
-      <c r="K76" t="n">
-        <v>12216285.45572233</v>
-      </c>
-      <c r="L76" t="n">
-        <v>12339840.15991485</v>
-      </c>
-      <c r="M76" t="n">
-        <v>12457800.9627732</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>12251248.30537856</v>
-      </c>
-      <c r="C77" t="n">
-        <v>12432217.3097682</v>
-      </c>
-      <c r="D77" t="n">
-        <v>12604323.97495306</v>
-      </c>
-      <c r="E77" t="n">
-        <v>12768018.14509511</v>
-      </c>
-      <c r="F77" t="n">
-        <v>12923732.26152003</v>
-      </c>
-      <c r="G77" t="n">
-        <v>13071880.81780136</v>
-      </c>
-      <c r="H77" t="n">
-        <v>13212860.10000002</v>
-      </c>
-      <c r="I77" t="n">
-        <v>13347048.15821946</v>
-      </c>
-      <c r="J77" t="n">
-        <v>13474804.96382344</v>
-      </c>
-      <c r="K77" t="n">
-        <v>13596472.71344447</v>
-      </c>
-      <c r="L77" t="n">
-        <v>13712376.24718821</v>
-      </c>
-      <c r="M77" t="n">
-        <v>13822823.55360138</v>
+        <v>2926519.577783465</v>
       </c>
     </row>
   </sheetData>
